--- a/project1_EnterpriseAnalyticalDataLake/Project_Tasks.xlsx
+++ b/project1_EnterpriseAnalyticalDataLake/Project_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\DataScienceHungers\bigdata_projects\project1_EnterpriseAnalyticalDataLake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E1E103-00D9-4295-98DF-D4C3608CEA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DCB01F-BF02-40EF-A2CB-7BEFFC2432CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,36 +33,37 @@
     <t xml:space="preserve">data extraction from sql server using python </t>
   </si>
   <si>
-    <t>- Believe, sqoop is outdated. so we shall use python 
-- will use sqlalchemy library to connect with SQL server 
-- will use json or  yaml for maintaining config 
-- will use SHA25 or SHA 512 algorithm for generating hash code
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>staging script using Linux bash shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyspark script for transformation </t>
+  </si>
+  <si>
+    <t>- Believe, Sqoop is outdated. so we shall use python 
+- will use SQL alchemy library to connect and extract data from the  SQL server 
+- will use Json or  yaml for maintaining config 
+- will use SHA256 or SHA 512 algorithm for generating hash code
  - will generate .ctl file along with the data file (content : data file name, size, hash code, hash code algorithm, record count)</t>
-  </si>
-  <si>
-    <t>staging script using linux bash shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- simple bash script to copy the data file from edge node to the staging layer
-		- ensure data file is not corrupted before we transfer the data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyspark script for transfomation </t>
   </si>
   <si>
     <t xml:space="preserve">- pyspark script for populating the core layer. 
 		- will use parquet file format and snappy compression. 
 		- maintain config table for transformation, processing, file picking 
-		- HIVE external tables to server the data </t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Due Date</t>
+		- HIVE external tables to serve the data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- simple bash script to copy the data file from edge node to the staging layer
+- ensure data file is not corrupted before we transfer the data
+- backup the raw data </t>
   </si>
 </sst>
 </file>
@@ -406,7 +407,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,13 +422,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="90" x14ac:dyDescent="0.25">
@@ -438,21 +439,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>45181</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>45182</v>
@@ -463,10 +464,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>45183</v>
